--- a/PL/assignment_3/partA/results_rosario.xlsx
+++ b/PL/assignment_3/partA/results_rosario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_3\partA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters-ML\PL\assignment_3\partA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F66C9C-9F00-4A5D-8EBD-68832AEEE6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13D5789-E6BA-4F27-9C03-4ED62B43AEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>Membership Functions</t>
   </si>
@@ -76,6 +76,231 @@
   </si>
   <si>
     <t xml:space="preserve">Sugeno - Wave From SAWTOOTH </t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>5.323</t>
+  </si>
+  <si>
+    <t>101.6</t>
+  </si>
+  <si>
+    <t>3.688</t>
+  </si>
+  <si>
+    <t>102.4</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>3.405</t>
+  </si>
+  <si>
+    <t>105.1</t>
+  </si>
+  <si>
+    <t>1.956</t>
+  </si>
+  <si>
+    <t>104.7</t>
+  </si>
+  <si>
+    <t>2.366</t>
+  </si>
+  <si>
+    <t>97.57</t>
+  </si>
+  <si>
+    <t>0.4528</t>
+  </si>
+  <si>
+    <t>104.6</t>
+  </si>
+  <si>
+    <t>0.089</t>
+  </si>
+  <si>
+    <t>3.1712</t>
+  </si>
+  <si>
+    <t>101.5</t>
+  </si>
+  <si>
+    <t>104.3</t>
+  </si>
+  <si>
+    <t>1.747</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>2.449</t>
+  </si>
+  <si>
+    <t>98.76</t>
+  </si>
+  <si>
+    <t>0.4141</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>97.33</t>
+  </si>
+  <si>
+    <t>0.8882</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>27.63</t>
+  </si>
+  <si>
+    <t>315.7</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>35.42</t>
+  </si>
+  <si>
+    <t>302.5</t>
+  </si>
+  <si>
+    <t>35.47</t>
+  </si>
+  <si>
+    <t>304.9</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>29.24</t>
+  </si>
+  <si>
+    <t>191.6</t>
+  </si>
+  <si>
+    <t>31.63</t>
+  </si>
+  <si>
+    <t>189.8</t>
+  </si>
+  <si>
+    <t>25.38</t>
+  </si>
+  <si>
+    <t>197.4</t>
+  </si>
+  <si>
+    <t>25.95</t>
+  </si>
+  <si>
+    <t>317.5</t>
+  </si>
+  <si>
+    <t>24.4</t>
+  </si>
+  <si>
+    <t>198.1</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>26.43</t>
+  </si>
+  <si>
+    <t>318.4</t>
+  </si>
+  <si>
+    <t>24.48</t>
+  </si>
+  <si>
+    <t>31.86</t>
+  </si>
+  <si>
+    <t>186.1</t>
+  </si>
+  <si>
+    <t>37.8</t>
+  </si>
+  <si>
+    <t>297.6</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>14.35</t>
+  </si>
+  <si>
+    <t>101.3</t>
+  </si>
+  <si>
+    <t>12.44</t>
+  </si>
+  <si>
+    <t>29.54</t>
+  </si>
+  <si>
+    <t>8.873</t>
+  </si>
+  <si>
+    <t>62.04</t>
+  </si>
+  <si>
+    <t>10.92</t>
+  </si>
+  <si>
+    <t>81.79</t>
+  </si>
+  <si>
+    <t>12.36</t>
+  </si>
+  <si>
+    <t>76.39</t>
+  </si>
+  <si>
+    <t>9.069</t>
+  </si>
+  <si>
+    <t>58.81</t>
+  </si>
+  <si>
+    <t>11.71</t>
+  </si>
+  <si>
+    <t>57.59</t>
+  </si>
+  <si>
+    <t>14.86</t>
+  </si>
+  <si>
+    <t>78.11</t>
+  </si>
+  <si>
+    <t>9.414</t>
+  </si>
+  <si>
+    <t>93.14</t>
+  </si>
+  <si>
+    <t>8.096</t>
+  </si>
+  <si>
+    <t>69.45</t>
   </si>
 </sst>
 </file>
@@ -156,14 +381,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,101 +670,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:S33"/>
+  <dimension ref="B2:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="16.5546875" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:19" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="L2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="I3" s="6"/>
+      <c r="L3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="2:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="2:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
@@ -552,10 +777,10 @@
       <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
       <c r="P4" s="3" t="s">
         <v>8</v>
       </c>
@@ -569,20 +794,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="L5" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4">
+        <v>224</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="4">
@@ -607,18 +844,30 @@
         <v>16.47</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
       <c r="C6" s="4">
         <v>25</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="L6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4">
+        <v>80</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="6"/>
       <c r="M6" s="4">
         <v>25</v>
       </c>
@@ -641,24 +890,32 @@
         <v>96.33</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
       <c r="C7" s="4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E7" s="4">
-        <v>70</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="L7" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="6"/>
       <c r="M7" s="4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N7" s="4">
         <v>0.12</v>
@@ -679,20 +936,32 @@
         <v>98.59</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4">
         <v>9</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="L8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4">
+        <v>256</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M8" s="4">
@@ -717,18 +986,30 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
       <c r="C9" s="4">
         <v>25</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="L9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4">
+        <v>80</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4">
+        <v>105</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="6"/>
       <c r="M9" s="4">
         <v>25</v>
       </c>
@@ -751,20 +1032,32 @@
         <v>97.49</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
       <c r="C10" s="4">
-        <v>45</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="L10" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4">
+        <v>80</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="4">
+        <v>104</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="6"/>
       <c r="M10" s="4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N10" s="4">
         <v>0.15</v>
@@ -785,7 +1078,7 @@
         <v>97.43</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -795,7 +1088,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -805,75 +1098,75 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="2:19" ht="18" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="L13" s="6" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="L14" s="5" t="s">
+      <c r="I14" s="6"/>
+      <c r="L14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5" t="s">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S14" s="5"/>
-    </row>
-    <row r="15" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
@@ -886,10 +1179,10 @@
       <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
@@ -903,20 +1196,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4">
         <v>9</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="L16" s="5" t="s">
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M16" s="4">
@@ -941,18 +1246,30 @@
         <v>315.60000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
       <c r="C17" s="4">
         <v>25</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="L17" s="5"/>
+      <c r="D17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="4">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="4">
+        <v>198</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="6"/>
       <c r="M17" s="4">
         <v>25</v>
       </c>
@@ -975,24 +1292,32 @@
         <v>96.13</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
       <c r="C18" s="4">
-        <v>45</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.02</v>
+        <v>49</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E18" s="4">
         <v>70</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="L18" s="5"/>
+      <c r="F18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="6"/>
       <c r="M18" s="4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N18" s="4">
         <v>0.11</v>
@@ -1013,20 +1338,32 @@
         <v>327.3</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="4">
         <v>9</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="L19" s="5" t="s">
+      <c r="D19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="4">
+        <v>100</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M19" s="4">
@@ -1051,18 +1388,30 @@
         <v>320.7</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
       <c r="C20" s="4">
         <v>25</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="L20" s="5"/>
+      <c r="D20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4">
+        <v>30</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="6"/>
       <c r="M20" s="4">
         <v>25</v>
       </c>
@@ -1085,20 +1434,32 @@
         <v>324.2</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="4">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="1">
+        <v>49</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="4">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="L21" s="5"/>
+      <c r="I21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="6"/>
       <c r="M21" s="4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N21" s="4">
         <v>0.15</v>
@@ -1119,391 +1480,409 @@
         <v>321.7</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="18" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="L23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="L24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
+      <c r="R24" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="S24" s="6"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5" t="s">
+    <row r="25" spans="2:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4">
         <v>9</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="L25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5" t="s">
+      <c r="D26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="4">
+        <v>55</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="4">
         <v>9</v>
       </c>
-      <c r="S25" s="5"/>
-    </row>
-    <row r="26" spans="2:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="N26" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="O26" s="4">
+        <v>13</v>
+      </c>
+      <c r="P26" s="4">
+        <v>8.7539999999999996</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>61.02</v>
+      </c>
+      <c r="R26" s="4">
+        <v>11.38</v>
+      </c>
+      <c r="S26" s="4">
+        <v>77.8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="4">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="4">
+        <v>30</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="4">
+        <v>25</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O27" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P27" s="4">
+        <v>8.5779999999999994</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>61.47</v>
+      </c>
+      <c r="R27" s="4">
         <v>11</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="S27" s="4">
+        <v>78.88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="4">
+        <v>49</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E28" s="4">
+        <v>30</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="4">
+        <v>49</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="O28" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="P28" s="4">
+        <v>8.0250000000000004</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>63.71</v>
+      </c>
+      <c r="R28" s="4">
+        <v>10.25</v>
+      </c>
+      <c r="S28" s="4">
+        <v>81.33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
         <v>9</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="L27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M27" s="4">
+      <c r="D29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="4">
+        <v>65</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4">
         <v>9</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N29" s="4">
         <v>0.09</v>
       </c>
-      <c r="O27" s="4">
-        <v>13</v>
-      </c>
-      <c r="P27" s="4">
-        <v>8.7539999999999996</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>61.02</v>
-      </c>
-      <c r="R27" s="4">
-        <v>11.38</v>
-      </c>
-      <c r="S27" s="4">
-        <v>77.8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="4">
+      <c r="O29" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P29" s="4">
+        <v>8.7650000000000006</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>61.97</v>
+      </c>
+      <c r="R29" s="4">
+        <v>11.02</v>
+      </c>
+      <c r="S29" s="4">
+        <v>78.44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="4">
         <v>25</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="4">
+      <c r="D30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="4">
+        <v>30</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="4">
         <v>25</v>
       </c>
-      <c r="N28" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="O28" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="P28" s="4">
-        <v>8.5779999999999994</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>61.47</v>
-      </c>
-      <c r="R28" s="4">
-        <v>11</v>
-      </c>
-      <c r="S28" s="4">
-        <v>78.88</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="4">
-        <v>45</v>
-      </c>
-      <c r="D29" s="4">
+      <c r="N30" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O30" s="4">
+        <v>7.12</v>
+      </c>
+      <c r="P30" s="4">
+        <v>8.298</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>62.69</v>
+      </c>
+      <c r="R30" s="4">
+        <v>10.14</v>
+      </c>
+      <c r="S30" s="4">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="4">
+        <v>49</v>
+      </c>
+      <c r="D31" s="4">
         <v>0.02</v>
       </c>
-      <c r="E29" s="4">
-        <v>70</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="4">
-        <v>45</v>
-      </c>
-      <c r="N29" s="4">
-        <v>0.11</v>
-      </c>
-      <c r="O29" s="4">
-        <v>9.1</v>
-      </c>
-      <c r="P29" s="4">
-        <v>8.0250000000000004</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>63.71</v>
-      </c>
-      <c r="R29" s="4">
-        <v>10.25</v>
-      </c>
-      <c r="S29" s="4">
-        <v>81.33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4">
-        <v>9</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="L30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M30" s="4">
-        <v>9</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="O30" s="4">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="P30" s="4">
-        <v>8.7650000000000006</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>61.97</v>
-      </c>
-      <c r="R30" s="4">
-        <v>11.02</v>
-      </c>
-      <c r="S30" s="4">
-        <v>78.44</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="4">
-        <v>25</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="L31" s="5"/>
+      <c r="E31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="4">
+        <v>8.9069999999999996E-2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>104.7</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="I31" s="4">
+        <v>96.42</v>
+      </c>
+      <c r="L31" s="6"/>
       <c r="M31" s="4">
-        <v>25</v>
-      </c>
-      <c r="N31" s="4">
-        <v>0.14000000000000001</v>
+        <v>49</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.16</v>
       </c>
       <c r="O31" s="4">
-        <v>7.12</v>
+        <v>8.65</v>
       </c>
       <c r="P31" s="4">
-        <v>8.298</v>
+        <v>7.4160000000000004</v>
       </c>
       <c r="Q31" s="4">
-        <v>62.69</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="R31" s="4">
-        <v>10.14</v>
+        <v>9.1430000000000007</v>
       </c>
       <c r="S31" s="4">
-        <v>78.900000000000006</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="4">
-        <v>45</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="4">
-        <v>8.9069999999999996E-2</v>
-      </c>
-      <c r="G32" s="4">
-        <v>104.7</v>
-      </c>
-      <c r="H32" s="4">
-        <v>1.7370000000000001</v>
-      </c>
-      <c r="I32" s="4">
-        <v>96.42</v>
-      </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="4">
-        <v>45</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="O32" s="4">
-        <v>8.65</v>
-      </c>
-      <c r="P32" s="4">
-        <v>7.4160000000000004</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>64.930000000000007</v>
-      </c>
-      <c r="R32" s="4">
-        <v>9.1430000000000007</v>
-      </c>
-      <c r="S32" s="4">
         <v>81.14</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
@@ -1518,13 +1897,39 @@
     <mergeCell ref="O14:O15"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="R14:S14"/>
-    <mergeCell ref="L24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PL/assignment_3/partA/results_rosario.xlsx
+++ b/PL/assignment_3/partA/results_rosario.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\Mestrado\Masters\Masters-ML\PL\assignment_3\partA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F66C9C-9F00-4A5D-8EBD-68832AEEE6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC179EC6-F15A-408C-8CB4-99F0B77630DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -107,12 +108,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -142,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,14 +169,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -180,6 +199,1322 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$13:$I$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="4">
+                    <c:v>Integral Squared Error</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Integral Square Control Action</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Integral Squared Error</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Integral Square Control Action</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Membership Functions</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Nº Rules</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Scale Factor 1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Scale Factor 2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Without Perturbance</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Perturbance</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mamdani - Wave From SQUARE </c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3813-4FAE-A69E-4728854470F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$13:$I$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="4">
+                    <c:v>Integral Squared Error</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Integral Square Control Action</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Integral Squared Error</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Integral Square Control Action</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Membership Functions</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Nº Rules</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Scale Factor 1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Scale Factor 2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Without Perturbance</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Perturbance</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mamdani - Wave From SQUARE </c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3813-4FAE-A69E-4728854470F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$13:$I$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="4">
+                    <c:v>Integral Squared Error</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Integral Square Control Action</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Integral Squared Error</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Integral Square Control Action</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Membership Functions</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Nº Rules</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Scale Factor 1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Scale Factor 2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Without Perturbance</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Perturbance</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mamdani - Wave From SQUARE </c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3813-4FAE-A69E-4728854470F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$13:$I$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="4">
+                    <c:v>Integral Squared Error</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Integral Square Control Action</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Integral Squared Error</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Integral Square Control Action</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Membership Functions</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Nº Rules</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Scale Factor 1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Scale Factor 2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Without Perturbance</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Perturbance</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mamdani - Wave From SQUARE </c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3813-4FAE-A69E-4728854470F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$13:$I$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="4">
+                    <c:v>Integral Squared Error</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Integral Square Control Action</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Integral Squared Error</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Integral Square Control Action</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Membership Functions</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Nº Rules</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Scale Factor 1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Scale Factor 2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Without Perturbance</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Perturbance</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mamdani - Wave From SQUARE </c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3813-4FAE-A69E-4728854470F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$13:$I$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="4">
+                    <c:v>Integral Squared Error</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Integral Square Control Action</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Integral Squared Error</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Integral Square Control Action</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Membership Functions</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Nº Rules</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Scale Factor 1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Scale Factor 2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Without Perturbance</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Perturbance</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mamdani - Wave From SQUARE </c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3813-4FAE-A69E-4728854470F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="529102735"/>
+        <c:axId val="530812495"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="529102735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530812495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="530812495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529102735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{05375496-72D4-4AD5-8EEA-DED6F01B362C}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9297051" cy="6073205"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97E8F47-68AB-1A64-57D0-714CC66F7BFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,74 +1807,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="L2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="I3" s="8"/>
+      <c r="L3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="5"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" spans="2:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
@@ -552,10 +1887,10 @@
       <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
       <c r="P4" s="3" t="s">
         <v>8</v>
       </c>
@@ -570,7 +1905,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4">
@@ -582,7 +1917,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="4">
@@ -608,7 +1943,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="4">
         <v>25</v>
       </c>
@@ -618,7 +1953,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="4">
         <v>25</v>
       </c>
@@ -642,7 +1977,7 @@
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="4">
         <v>45</v>
       </c>
@@ -656,9 +1991,9 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N7" s="4">
         <v>0.12</v>
@@ -680,7 +2015,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="4">
@@ -692,33 +2027,33 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="5">
         <v>9</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>0.11799999999999999</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="5">
         <v>9.4</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="5">
         <v>0.28199999999999997</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="5">
         <v>104.7</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="5">
         <v>2.0009999999999999</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="5">
         <v>97.5</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="4">
         <v>25</v>
       </c>
@@ -728,7 +2063,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="4">
         <v>25</v>
       </c>
@@ -752,7 +2087,7 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="4">
         <v>45</v>
       </c>
@@ -762,26 +2097,26 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="4">
-        <v>45</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="L10" s="8"/>
+      <c r="M10" s="7">
+        <v>49</v>
+      </c>
+      <c r="N10" s="7">
         <v>0.15</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="7">
         <v>6.78</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="7">
         <v>0.33550000000000002</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="7">
         <v>104.7</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="7">
         <v>2.1179999999999999</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="7">
         <v>97.43</v>
       </c>
     </row>
@@ -806,74 +2141,74 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="L13" s="6" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="L13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="L14" s="5" t="s">
+      <c r="I14" s="8"/>
+      <c r="L14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5" t="s">
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S14" s="5"/>
+      <c r="S14" s="8"/>
     </row>
     <row r="15" spans="2:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
@@ -886,10 +2221,10 @@
       <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
@@ -904,7 +2239,7 @@
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="4">
@@ -916,7 +2251,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M16" s="4">
@@ -942,7 +2277,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="4">
         <v>25</v>
       </c>
@@ -952,7 +2287,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="4">
         <v>25</v>
       </c>
@@ -976,7 +2311,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="4">
         <v>45</v>
       </c>
@@ -990,31 +2325,31 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="4">
-        <v>45</v>
-      </c>
-      <c r="N18" s="4">
+      <c r="L18" s="8"/>
+      <c r="M18" s="5">
+        <v>49</v>
+      </c>
+      <c r="N18" s="5">
         <v>0.11</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="5">
         <v>8.8000000000000007</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="5">
         <v>20.36</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="5">
         <v>206.3</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="5">
         <v>22.87</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="5">
         <v>327.3</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="4">
@@ -1026,7 +2361,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="M19" s="4">
@@ -1052,7 +2387,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="4">
         <v>25</v>
       </c>
@@ -1062,7 +2397,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="4">
         <v>25</v>
       </c>
@@ -1086,7 +2421,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="4">
         <v>45</v>
       </c>
@@ -1096,9 +2431,9 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="8"/>
       <c r="M21" s="4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N21" s="4">
         <v>0.15</v>
@@ -1140,74 +2475,74 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="L24" s="6" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="L24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5" t="s">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="L25" s="5" t="s">
+      <c r="I25" s="8"/>
+      <c r="L25" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="P25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5" t="s">
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S25" s="5"/>
+      <c r="S25" s="8"/>
     </row>
     <row r="26" spans="2:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1220,10 +2555,10 @@
       <c r="I26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
       <c r="P26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1238,7 +2573,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="4">
@@ -1250,7 +2585,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M27" s="4">
@@ -1276,7 +2611,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="4">
         <v>25</v>
       </c>
@@ -1286,7 +2621,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="L28" s="5"/>
+      <c r="L28" s="8"/>
       <c r="M28" s="4">
         <v>25</v>
       </c>
@@ -1310,7 +2645,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="4">
         <v>45</v>
       </c>
@@ -1324,9 +2659,9 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="L29" s="5"/>
+      <c r="L29" s="8"/>
       <c r="M29" s="4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N29" s="4">
         <v>0.11</v>
@@ -1348,7 +2683,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="4">
@@ -1360,7 +2695,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="8" t="s">
         <v>1</v>
       </c>
       <c r="M30" s="4">
@@ -1386,7 +2721,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="4">
         <v>25</v>
       </c>
@@ -1396,7 +2731,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="L31" s="5"/>
+      <c r="L31" s="8"/>
       <c r="M31" s="4">
         <v>25</v>
       </c>
@@ -1420,7 +2755,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="4">
         <v>45</v>
       </c>
@@ -1442,26 +2777,26 @@
       <c r="I32" s="4">
         <v>96.42</v>
       </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="4">
-        <v>45</v>
-      </c>
-      <c r="N32" s="7">
+      <c r="L32" s="8"/>
+      <c r="M32" s="5">
+        <v>49</v>
+      </c>
+      <c r="N32" s="6">
         <v>0.16</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="5">
         <v>8.65</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="5">
         <v>7.4160000000000004</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32" s="5">
         <v>64.930000000000007</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R32" s="5">
         <v>9.1430000000000007</v>
       </c>
-      <c r="S32" s="4">
+      <c r="S32" s="5">
         <v>81.14</v>
       </c>
     </row>
@@ -1471,6 +2806,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="L24:S24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="B2:I2"/>
@@ -1487,44 +2860,6 @@
     <mergeCell ref="B24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="L2:S2"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="L24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="P25:Q25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
